--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -132,10 +132,13 @@
     <t xml:space="preserve">lossess|district heat|distribution losses</t>
   </si>
   <si>
+    <t xml:space="preserve">1/%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossess|electricity|distribution losses</t>
+  </si>
+  <si>
     <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossess|electricity|distribution losses</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,10 +836,12 @@
         <v>29</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.2</v>
+        <f aca="false">1/0.2</f>
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.2</v>
+        <f aca="false">1/0.2</f>
+        <v>5</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -859,13 +864,15 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.7</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.7</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
+    <t xml:space="preserve">remind</t>
   </si>
   <si>
     <t xml:space="preserve">SSP2-Base</t>
@@ -286,10 +286,10 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.48"/>
   </cols>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">production|district heat|Excess from fuels</t>
   </si>
   <si>
-    <t xml:space="preserve">production|district heat|District heat use</t>
+    <t xml:space="preserve">consumption|district heat|District heat use</t>
   </si>
   <si>
     <t xml:space="preserve">lossess|district heat|distribution losses</t>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|electricity|residential electricity use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwh</t>
   </si>
 </sst>
 </file>
@@ -181,18 +187,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +246,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,10 +286,10 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A20"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.48"/>
   </cols>
@@ -807,10 +807,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>-0.0199728</v>
+        <v>74.2</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0217872</v>
+        <v>68.8</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -879,14 +879,30 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>8394</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>7724.71</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -38,12 +38,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Data in source doesn’t add up, and unit is unclear. Must be wrong?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -145,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gwh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|individual heat|individual heat use</t>
   </si>
 </sst>
 </file>
@@ -286,7 +302,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -908,14 +924,30 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>70.1</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -925,7 +957,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -938,7 +970,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="E18" authorId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,28 +139,28 @@
     <t xml:space="preserve">production|district heat|Excess from fuels</t>
   </si>
   <si>
+    <t xml:space="preserve">lossess|district heat|distribution losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossess|electricity|distribution losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|electricity|residential electricity use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|individual heat|individual heat use</t>
+  </si>
+  <si>
     <t xml:space="preserve">consumption|district heat|District heat use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossess|district heat|distribution losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossess|electricity|distribution losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumption|electricity|residential electricity use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumption|individual heat|individual heat use</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,10 +256,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -299,13 +295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.48"/>
   </cols>
@@ -816,17 +812,19 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>74.2</v>
+        <f aca="false">1/0.2</f>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>68.8</v>
+        <f aca="false">1/0.2</f>
+        <v>5</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -846,18 +844,18 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2" t="n">
-        <f aca="false">1/0.2</f>
-        <v>5</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="H19" s="2" t="n">
-        <f aca="false">1/0.2</f>
-        <v>5</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -876,19 +874,17 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="n">
-        <f aca="false">1/0.7</f>
-        <v>1.42857142857143</v>
+        <v>8394</v>
       </c>
       <c r="H20" s="2" t="n">
-        <f aca="false">1/0.7</f>
-        <v>1.42857142857143</v>
+        <v>7724.71</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -907,17 +903,17 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8394</v>
+        <v>53.7</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>7724.71</v>
+        <v>70.1</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -936,17 +932,17 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>53.7</v>
+        <v>74.2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>70.1</v>
+        <v>68.8</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -957,7 +953,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -970,7 +966,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -998,8 +994,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1011,30 +1007,20 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
@@ -1050,91 +1036,88 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
-      <c r="J36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
-      <c r="E37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
-      <c r="E45" s="8"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
-      <c r="E46" s="8"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
-      <c r="E47" s="8"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A192" activeCellId="0" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="E21" authorId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -91,73 +91,82 @@
     <t xml:space="preserve">production|individual heat|solar heat</t>
   </si>
   <si>
+    <t xml:space="preserve">MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|air heat pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|ground heat pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|biomass furnace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|biomass stove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|biomass pellets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|individual heat|sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Woodchips CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Gas CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Waste CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Geothermal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Solar heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Residual industrial heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Wood boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Straw boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production|district heat|Excess from fuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossess|district heat|distribution losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossess|electricity|distribution losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|electricity|residential electricity use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption|individual heat|individual heat use</t>
+  </si>
+  <si>
     <t xml:space="preserve">PJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|individual heat|air heat pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|individual heat|ground heat pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|individual heat|biomass furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|individual heat|sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Woodchips CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Gas CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Waste CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Geothermal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Solar heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Residual industrial heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Wood boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Straw boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production|district heat|Excess from fuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossess|district heat|distribution losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossess|electricity|distribution losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumption|electricity|residential electricity use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumption|individual heat|individual heat use</t>
   </si>
   <si>
     <t xml:space="preserve">consumption|district heat|District heat use</t>
@@ -203,12 +212,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +271,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -295,15 +318,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A192" activeCellId="0" sqref="A192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,13 +379,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>2500000000</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5000000000</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,13 +408,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>3.9564</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>12600000000</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3956400000</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,42 +437,42 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>37.9215</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>54.657</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>37921500000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>54657000000</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>25.17048</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.1008</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>25170480000</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>26170480000</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,13 +495,13 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>78.19198</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>63.7142</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>12585240000</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>13085240000</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,13 +524,13 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>12585240000</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13085240000</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,20 +546,20 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>10.24488</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>4.87728</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>78191980000</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>63714200000</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,20 +575,20 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>27.379944</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>29.4804</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,20 +604,20 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>21.4760484</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>10244880000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4877280000</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,20 +633,20 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>11.18664</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>17.82054</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>27379944000</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>29480400000</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,20 +662,20 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.75236</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4.19004</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+        <v>21476048400</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,20 +691,20 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+        <v>11186640000</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>17820540000</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,20 +720,20 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+        <v>4752360000</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4190040000</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,20 +749,20 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+        <v>3500000000</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,20 +778,20 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>22.19868</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>7.5582</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+        <v>4700000000</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4700000000</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +807,7 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -792,11 +816,11 @@
       <c r="G17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.0032472</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,79 +836,77 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>22198680000</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>7558200000</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3247200</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <f aca="false">1/0.2</f>
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H20" s="2" t="n">
         <f aca="false">1/0.2</f>
         <v>5</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <f aca="false">1/0.7</f>
-        <v>1.42857142857143</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <f aca="false">1/0.7</f>
-        <v>1.42857142857143</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>8394</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>7724.71</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -903,17 +925,19 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>53.7</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>70.1</v>
+        <f aca="false">1/0.7</f>
+        <v>1.42857142857143</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -932,44 +956,76 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G22" s="2" t="n">
-        <v>74.2</v>
+        <v>8394000</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>68.8</v>
+        <v>7724710</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>53700000000</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>70100000000</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>74200000000</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>68800000000</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -979,7 +1035,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -994,8 +1050,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1014,16 +1070,36 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1"/>
@@ -1036,88 +1112,94 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
-      <c r="E36" s="7"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="E38" s="9"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
-      <c r="E43" s="7"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
-      <c r="E44" s="7"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
-      <c r="E45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="5"/>
+      <c r="E45" s="9"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
-      <c r="E46" s="7"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46" s="9"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="E47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">consumption|individual heat|individual heat use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJ</t>
   </si>
   <si>
     <t xml:space="preserve">consumption|district heat|District heat use</t>
@@ -176,12 +173,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -260,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,11 +288,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,7 +328,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -963,13 +970,13 @@
         <v>34</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8394000</v>
+        <v>8394000000</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>7724710</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+        <v>7724710000</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>53700000000</v>
@@ -997,8 +1004,8 @@
       <c r="H23" s="2" t="n">
         <v>70100000000</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>74200000000</v>
@@ -1026,8 +1033,8 @@
       <c r="H24" s="2" t="n">
         <v>68800000000</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,10 +1044,10 @@
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,8 +1083,8 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1118,88 +1125,88 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
-      <c r="E38" s="9"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
+      <c r="E38" s="11"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
-      <c r="E45" s="9"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="E45" s="11"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
-      <c r="E46" s="9"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="7"/>
+      <c r="E46" s="11"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
-      <c r="E47" s="9"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="7"/>
+      <c r="E47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
-      <c r="E48" s="9"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="E48" s="11"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenario_data/scenario_data.xlsx
+++ b/scenario_data/scenario_data.xlsx
@@ -25,6 +25,19 @@
     <author> </author>
   </authors>
   <commentList>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Everything below are copies to include other ssps</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -56,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="42">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -166,21 +179,34 @@
     <t xml:space="preserve">consumption|individual heat|individual heat use</t>
   </si>
   <si>
+    <t xml:space="preserve">SSP1-Base</t>
+  </si>
+  <si>
     <t xml:space="preserve">consumption|district heat|District heat use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP5-Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP2-PkBudg500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP1-PkBudg500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP5-PkBudg500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -211,7 +237,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +248,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,10 +304,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,24 +316,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -317,6 +349,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -325,16 +417,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25:H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B139" activeCellId="0" sqref="B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,8 +484,8 @@
       <c r="H2" s="0" t="n">
         <v>5000000000</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,8 +513,8 @@
       <c r="H3" s="0" t="n">
         <v>3956400000</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,24 +542,24 @@
       <c r="H4" s="0" t="n">
         <v>54657000000</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -478,8 +571,8 @@
       <c r="H5" s="0" t="n">
         <v>26170480000</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,8 +600,8 @@
       <c r="H6" s="0" t="n">
         <v>13085240000</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,8 +629,8 @@
       <c r="H7" s="0" t="n">
         <v>13085240000</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,8 +658,8 @@
       <c r="H8" s="0" t="n">
         <v>63714200000</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,8 +687,8 @@
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +704,7 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -623,8 +716,8 @@
       <c r="H10" s="0" t="n">
         <v>4877280000</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +733,7 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -652,8 +745,8 @@
       <c r="H11" s="0" t="n">
         <v>29480400000</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +762,7 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -681,8 +774,8 @@
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +791,7 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -710,8 +803,8 @@
       <c r="H13" s="0" t="n">
         <v>17820540000</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +820,7 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -739,8 +832,8 @@
       <c r="H14" s="0" t="n">
         <v>4190040000</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,7 +849,7 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -768,8 +861,8 @@
       <c r="H15" s="0" t="n">
         <v>7000000000</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +878,7 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -797,8 +890,8 @@
       <c r="H16" s="0" t="n">
         <v>4700000000</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,7 +907,7 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -826,8 +919,8 @@
       <c r="H17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +936,7 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -855,8 +948,8 @@
       <c r="H18" s="0" t="n">
         <v>7558200000</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +965,7 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -884,8 +977,8 @@
       <c r="H19" s="0" t="n">
         <v>3247200</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +994,7 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -932,7 +1025,7 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -975,8 +1068,8 @@
       <c r="H22" s="2" t="n">
         <v>7724710000</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +1085,7 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1004,209 +1097,4152 @@
       <c r="H23" s="2" t="n">
         <v>70100000000</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>74200000000</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>68800000000</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="str">
+        <f aca="false">A2</f>
+        <v>remind</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="n">
+      <c r="C25" s="6" t="str">
+        <f aca="false">C2</f>
+        <v>Wind</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f aca="false">D2</f>
+        <v>DK</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f aca="false">E2</f>
+        <v>production|individual heat|solar heat</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f aca="false">F2</f>
+        <v>MJ</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">G2</f>
+        <v>2500000000</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">H2</f>
+        <v>5000000000</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="str">
+        <f aca="false">A3</f>
+        <v>remind</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f aca="false">C3</f>
+        <v>Wind</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f aca="false">D3</f>
+        <v>DK</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f aca="false">E3</f>
+        <v>production|individual heat|air heat pump</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f aca="false">F3</f>
+        <v>MJ</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">G3</f>
+        <v>12600000000</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">H3</f>
+        <v>3956400000</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="str">
+        <f aca="false">A4</f>
+        <v>remind</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f aca="false">C4</f>
+        <v>Wind</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f aca="false">D4</f>
+        <v>DK</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f aca="false">E4</f>
+        <v>production|individual heat|ground heat pump</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f aca="false">F4</f>
+        <v>MJ</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">G4</f>
+        <v>37921500000</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">H4</f>
+        <v>54657000000</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="str">
+        <f aca="false">A5</f>
+        <v>remind</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f aca="false">C5</f>
+        <v>Wind</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f aca="false">D5</f>
+        <v>DK</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f aca="false">E5</f>
+        <v>production|individual heat|biomass furnace</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f aca="false">F5</f>
+        <v>MJ</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">G5</f>
+        <v>25170480000</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">H5</f>
+        <v>26170480000</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="str">
+        <f aca="false">A6</f>
+        <v>remind</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f aca="false">C6</f>
+        <v>Wind</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f aca="false">D6</f>
+        <v>DK</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f aca="false">E6</f>
+        <v>production|individual heat|biomass stove</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f aca="false">F6</f>
+        <v>MJ</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">G6</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">H6</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="str">
+        <f aca="false">A7</f>
+        <v>remind</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f aca="false">C7</f>
+        <v>Wind</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f aca="false">D7</f>
+        <v>DK</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f aca="false">E7</f>
+        <v>production|individual heat|biomass pellets</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f aca="false">F7</f>
+        <v>MJ</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">G7</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <f aca="false">H7</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="str">
+        <f aca="false">A8</f>
+        <v>remind</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f aca="false">C8</f>
+        <v>Wind</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f aca="false">D8</f>
+        <v>DK</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f aca="false">E8</f>
+        <v>production|individual heat|sum</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f aca="false">F8</f>
+        <v>MJ</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <f aca="false">G8</f>
+        <v>78191980000</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <f aca="false">H8</f>
+        <v>63714200000</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="str">
+        <f aca="false">A9</f>
+        <v>remind</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f aca="false">C9</f>
+        <v>Wind</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f aca="false">D9</f>
+        <v>DK</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f aca="false">E9</f>
+        <v>production|district heat|Woodchips CHP</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f aca="false">F9</f>
+        <v>MJ</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <f aca="false">G9</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <f aca="false">H9</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="str">
+        <f aca="false">A10</f>
+        <v>remind</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f aca="false">C10</f>
+        <v>Wind</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f aca="false">D10</f>
+        <v>DK</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f aca="false">E10</f>
+        <v>production|district heat|Gas CHP</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f aca="false">F10</f>
+        <v>MJ</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <f aca="false">G10</f>
+        <v>10244880000</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <f aca="false">H10</f>
+        <v>4877280000</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="str">
+        <f aca="false">A11</f>
+        <v>remind</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f aca="false">C11</f>
+        <v>Wind</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f aca="false">D11</f>
+        <v>DK</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f aca="false">E11</f>
+        <v>production|district heat|Waste CHP</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f aca="false">F11</f>
+        <v>MJ</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <f aca="false">G11</f>
+        <v>27379944000</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">H11</f>
+        <v>29480400000</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="str">
+        <f aca="false">A12</f>
+        <v>remind</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f aca="false">C12</f>
+        <v>Wind</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f aca="false">D12</f>
+        <v>DK</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f aca="false">E12</f>
+        <v>production|district heat|Biomass</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f aca="false">F12</f>
+        <v>MJ</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <f aca="false">G12</f>
+        <v>21476048400</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <f aca="false">H12</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="str">
+        <f aca="false">A13</f>
+        <v>remind</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f aca="false">C13</f>
+        <v>Wind</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f aca="false">D13</f>
+        <v>DK</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f aca="false">E13</f>
+        <v>production|district heat|heat pumps</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f aca="false">F13</f>
+        <v>MJ</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <f aca="false">G13</f>
+        <v>11186640000</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <f aca="false">H13</f>
+        <v>17820540000</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="str">
+        <f aca="false">A14</f>
+        <v>remind</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f aca="false">C14</f>
+        <v>Wind</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f aca="false">D14</f>
+        <v>DK</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f aca="false">E14</f>
+        <v>production|district heat|Geothermal</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f aca="false">F14</f>
+        <v>MJ</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <f aca="false">G14</f>
+        <v>4752360000</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <f aca="false">H14</f>
+        <v>4190040000</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="str">
+        <f aca="false">A15</f>
+        <v>remind</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f aca="false">C15</f>
+        <v>Wind</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f aca="false">D15</f>
+        <v>DK</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f aca="false">E15</f>
+        <v>production|district heat|Solar heat</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f aca="false">F15</f>
+        <v>MJ</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <f aca="false">G15</f>
+        <v>3500000000</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <f aca="false">H15</f>
+        <v>7000000000</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="str">
+        <f aca="false">A16</f>
+        <v>remind</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f aca="false">C16</f>
+        <v>Wind</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f aca="false">D16</f>
+        <v>DK</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f aca="false">E16</f>
+        <v>production|district heat|Residual industrial heat</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f aca="false">F16</f>
+        <v>MJ</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <f aca="false">G16</f>
+        <v>4700000000</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <f aca="false">H16</f>
+        <v>4700000000</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="str">
+        <f aca="false">A17</f>
+        <v>remind</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f aca="false">C17</f>
+        <v>Wind</v>
+      </c>
+      <c r="D40" s="6" t="str">
+        <f aca="false">D17</f>
+        <v>DK</v>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f aca="false">E17</f>
+        <v>production|district heat|Wood boiler</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f aca="false">F17</f>
+        <v>MJ</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <f aca="false">G17</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <f aca="false">H17</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="str">
+        <f aca="false">A18</f>
+        <v>remind</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f aca="false">C18</f>
+        <v>Wind</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f aca="false">D18</f>
+        <v>DK</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f aca="false">E18</f>
+        <v>production|district heat|Straw boiler</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f aca="false">F18</f>
+        <v>MJ</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <f aca="false">G18</f>
+        <v>22198680000</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <f aca="false">H18</f>
+        <v>7558200000</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="str">
+        <f aca="false">A19</f>
+        <v>remind</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f aca="false">C19</f>
+        <v>Wind</v>
+      </c>
+      <c r="D42" s="6" t="str">
+        <f aca="false">D19</f>
+        <v>DK</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f aca="false">E19</f>
+        <v>production|district heat|Excess from fuels</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f aca="false">F19</f>
+        <v>MJ</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <f aca="false">G19</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <f aca="false">H19</f>
+        <v>3247200</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="str">
+        <f aca="false">A20</f>
+        <v>remind</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f aca="false">C20</f>
+        <v>Wind</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f aca="false">D20</f>
+        <v>DK</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f aca="false">E20</f>
+        <v>lossess|district heat|distribution losses</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f aca="false">F20</f>
+        <v>1/%</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <f aca="false">G20</f>
+        <v>5</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <f aca="false">H20</f>
+        <v>5</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="str">
+        <f aca="false">A21</f>
+        <v>remind</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f aca="false">C21</f>
+        <v>Wind</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f aca="false">D21</f>
+        <v>DK</v>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f aca="false">E21</f>
+        <v>lossess|electricity|distribution losses</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f aca="false">F21</f>
+        <v>%</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <f aca="false">G21</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <f aca="false">H21</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="str">
+        <f aca="false">A22</f>
+        <v>remind</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f aca="false">C22</f>
+        <v>Wind</v>
+      </c>
+      <c r="D45" s="6" t="str">
+        <f aca="false">D22</f>
+        <v>DK</v>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f aca="false">E22</f>
+        <v>consumption|electricity|residential electricity use</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f aca="false">F22</f>
+        <v>kWh</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <f aca="false">G22</f>
+        <v>8394000000</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <f aca="false">H22</f>
+        <v>7724710000</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="str">
+        <f aca="false">A23</f>
+        <v>remind</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f aca="false">C23</f>
+        <v>Wind</v>
+      </c>
+      <c r="D46" s="6" t="str">
+        <f aca="false">D23</f>
+        <v>DK</v>
+      </c>
+      <c r="E46" s="6" t="str">
+        <f aca="false">E23</f>
+        <v>consumption|individual heat|individual heat use</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f aca="false">F23</f>
+        <v>MJ</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <f aca="false">G23</f>
+        <v>53700000000</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <f aca="false">H23</f>
+        <v>70100000000</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="str">
+        <f aca="false">A24</f>
+        <v>remind</v>
+      </c>
+      <c r="B47" s="6" t="str">
+        <f aca="false">B24</f>
+        <v>SSP1-Base</v>
+      </c>
+      <c r="C47" s="6" t="str">
+        <f aca="false">C24</f>
+        <v>Wind</v>
+      </c>
+      <c r="D47" s="6" t="str">
+        <f aca="false">D24</f>
+        <v>DK</v>
+      </c>
+      <c r="E47" s="6" t="str">
+        <f aca="false">E24</f>
+        <v>consumption|district heat|District heat use</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f aca="false">F24</f>
+        <v>MJ</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <f aca="false">G24</f>
         <v>74200000000</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H47" s="6" t="n">
+        <f aca="false">H24</f>
         <v>68800000000</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="E38" s="11"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="E45" s="11"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="E46" s="11"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="E47" s="11"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="E48" s="11"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="1" t="str">
+        <f aca="false">A25</f>
+        <v>remind</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f aca="false">C25</f>
+        <v>Wind</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f aca="false">D25</f>
+        <v>DK</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f aca="false">E25</f>
+        <v>production|individual heat|solar heat</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f aca="false">F25</f>
+        <v>MJ</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <f aca="false">G25</f>
+        <v>2500000000</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">H25</f>
+        <v>5000000000</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="1" t="str">
+        <f aca="false">A26</f>
+        <v>remind</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f aca="false">C26</f>
+        <v>Wind</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f aca="false">D26</f>
+        <v>DK</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f aca="false">E26</f>
+        <v>production|individual heat|air heat pump</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f aca="false">F26</f>
+        <v>MJ</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <f aca="false">G26</f>
+        <v>12600000000</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">H26</f>
+        <v>3956400000</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="1" t="str">
+        <f aca="false">A27</f>
+        <v>remind</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f aca="false">C27</f>
+        <v>Wind</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f aca="false">D27</f>
+        <v>DK</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f aca="false">E27</f>
+        <v>production|individual heat|ground heat pump</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f aca="false">F27</f>
+        <v>MJ</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <f aca="false">G27</f>
+        <v>37921500000</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">H27</f>
+        <v>54657000000</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="1" t="str">
+        <f aca="false">A28</f>
+        <v>remind</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f aca="false">C28</f>
+        <v>Wind</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f aca="false">D28</f>
+        <v>DK</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f aca="false">E28</f>
+        <v>production|individual heat|biomass furnace</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f aca="false">F28</f>
+        <v>MJ</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <f aca="false">G28</f>
+        <v>25170480000</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">H28</f>
+        <v>26170480000</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="str">
+        <f aca="false">A29</f>
+        <v>remind</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f aca="false">C29</f>
+        <v>Wind</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f aca="false">D29</f>
+        <v>DK</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f aca="false">E29</f>
+        <v>production|individual heat|biomass stove</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f aca="false">F29</f>
+        <v>MJ</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <f aca="false">G29</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">H29</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="str">
+        <f aca="false">A30</f>
+        <v>remind</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f aca="false">C30</f>
+        <v>Wind</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f aca="false">D30</f>
+        <v>DK</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f aca="false">E30</f>
+        <v>production|individual heat|biomass pellets</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f aca="false">F30</f>
+        <v>MJ</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <f aca="false">G30</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">H30</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="str">
+        <f aca="false">A31</f>
+        <v>remind</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f aca="false">C31</f>
+        <v>Wind</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f aca="false">D31</f>
+        <v>DK</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f aca="false">E31</f>
+        <v>production|individual heat|sum</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f aca="false">F31</f>
+        <v>MJ</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">G31</f>
+        <v>78191980000</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">H31</f>
+        <v>63714200000</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="str">
+        <f aca="false">A32</f>
+        <v>remind</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f aca="false">C32</f>
+        <v>Wind</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f aca="false">D32</f>
+        <v>DK</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f aca="false">E32</f>
+        <v>production|district heat|Woodchips CHP</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f aca="false">F32</f>
+        <v>MJ</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <f aca="false">G32</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">H32</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="str">
+        <f aca="false">A33</f>
+        <v>remind</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f aca="false">C33</f>
+        <v>Wind</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f aca="false">D33</f>
+        <v>DK</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f aca="false">E33</f>
+        <v>production|district heat|Gas CHP</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f aca="false">F33</f>
+        <v>MJ</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <f aca="false">G33</f>
+        <v>10244880000</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">H33</f>
+        <v>4877280000</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="str">
+        <f aca="false">A34</f>
+        <v>remind</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f aca="false">C34</f>
+        <v>Wind</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f aca="false">D34</f>
+        <v>DK</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f aca="false">E34</f>
+        <v>production|district heat|Waste CHP</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f aca="false">F34</f>
+        <v>MJ</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <f aca="false">G34</f>
+        <v>27379944000</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <f aca="false">H34</f>
+        <v>29480400000</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="str">
+        <f aca="false">A35</f>
+        <v>remind</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f aca="false">C35</f>
+        <v>Wind</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f aca="false">D35</f>
+        <v>DK</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f aca="false">E35</f>
+        <v>production|district heat|Biomass</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f aca="false">F35</f>
+        <v>MJ</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <f aca="false">G35</f>
+        <v>21476048400</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <f aca="false">H35</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="str">
+        <f aca="false">A36</f>
+        <v>remind</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f aca="false">C36</f>
+        <v>Wind</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f aca="false">D36</f>
+        <v>DK</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f aca="false">E36</f>
+        <v>production|district heat|heat pumps</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f aca="false">F36</f>
+        <v>MJ</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <f aca="false">G36</f>
+        <v>11186640000</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">H36</f>
+        <v>17820540000</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="str">
+        <f aca="false">A37</f>
+        <v>remind</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f aca="false">C37</f>
+        <v>Wind</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f aca="false">D37</f>
+        <v>DK</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f aca="false">E37</f>
+        <v>production|district heat|Geothermal</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f aca="false">F37</f>
+        <v>MJ</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <f aca="false">G37</f>
+        <v>4752360000</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">H37</f>
+        <v>4190040000</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="str">
+        <f aca="false">A38</f>
+        <v>remind</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f aca="false">C38</f>
+        <v>Wind</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f aca="false">D38</f>
+        <v>DK</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f aca="false">E38</f>
+        <v>production|district heat|Solar heat</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f aca="false">F38</f>
+        <v>MJ</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <f aca="false">G38</f>
+        <v>3500000000</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">H38</f>
+        <v>7000000000</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="str">
+        <f aca="false">A39</f>
+        <v>remind</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f aca="false">C39</f>
+        <v>Wind</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f aca="false">D39</f>
+        <v>DK</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f aca="false">E39</f>
+        <v>production|district heat|Residual industrial heat</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f aca="false">F39</f>
+        <v>MJ</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <f aca="false">G39</f>
+        <v>4700000000</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">H39</f>
+        <v>4700000000</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="str">
+        <f aca="false">A40</f>
+        <v>remind</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f aca="false">C40</f>
+        <v>Wind</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f aca="false">D40</f>
+        <v>DK</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f aca="false">E40</f>
+        <v>production|district heat|Wood boiler</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f aca="false">F40</f>
+        <v>MJ</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <f aca="false">G40</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">H40</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="str">
+        <f aca="false">A41</f>
+        <v>remind</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f aca="false">C41</f>
+        <v>Wind</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f aca="false">D41</f>
+        <v>DK</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f aca="false">E41</f>
+        <v>production|district heat|Straw boiler</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f aca="false">F41</f>
+        <v>MJ</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <f aca="false">G41</f>
+        <v>22198680000</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">H41</f>
+        <v>7558200000</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="str">
+        <f aca="false">A42</f>
+        <v>remind</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f aca="false">C42</f>
+        <v>Wind</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f aca="false">D42</f>
+        <v>DK</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f aca="false">E42</f>
+        <v>production|district heat|Excess from fuels</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f aca="false">F42</f>
+        <v>MJ</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <f aca="false">G42</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">H42</f>
+        <v>3247200</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="str">
+        <f aca="false">A43</f>
+        <v>remind</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f aca="false">C43</f>
+        <v>Wind</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f aca="false">D43</f>
+        <v>DK</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f aca="false">E43</f>
+        <v>lossess|district heat|distribution losses</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f aca="false">F43</f>
+        <v>1/%</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <f aca="false">G43</f>
+        <v>5</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">H43</f>
+        <v>5</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="str">
+        <f aca="false">A44</f>
+        <v>remind</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f aca="false">C44</f>
+        <v>Wind</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f aca="false">D44</f>
+        <v>DK</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f aca="false">E44</f>
+        <v>lossess|electricity|distribution losses</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f aca="false">F44</f>
+        <v>%</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <f aca="false">G44</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <f aca="false">H44</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="str">
+        <f aca="false">A45</f>
+        <v>remind</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f aca="false">C45</f>
+        <v>Wind</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f aca="false">D45</f>
+        <v>DK</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f aca="false">E45</f>
+        <v>consumption|electricity|residential electricity use</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f aca="false">F45</f>
+        <v>kWh</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <f aca="false">G45</f>
+        <v>8394000000</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <f aca="false">H45</f>
+        <v>7724710000</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="str">
+        <f aca="false">A46</f>
+        <v>remind</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f aca="false">C46</f>
+        <v>Wind</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f aca="false">D46</f>
+        <v>DK</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f aca="false">E46</f>
+        <v>consumption|individual heat|individual heat use</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f aca="false">F46</f>
+        <v>MJ</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <f aca="false">G46</f>
+        <v>53700000000</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <f aca="false">H46</f>
+        <v>70100000000</v>
+      </c>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="str">
+        <f aca="false">A47</f>
+        <v>remind</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f aca="false">C47</f>
+        <v>Wind</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f aca="false">D47</f>
+        <v>DK</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f aca="false">E47</f>
+        <v>consumption|district heat|District heat use</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f aca="false">F47</f>
+        <v>MJ</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <f aca="false">G47</f>
+        <v>74200000000</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <f aca="false">H47</f>
+        <v>68800000000</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="str">
+        <f aca="false">A48</f>
+        <v>remind</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="6" t="str">
+        <f aca="false">C48</f>
+        <v>Wind</v>
+      </c>
+      <c r="D71" s="6" t="str">
+        <f aca="false">D48</f>
+        <v>DK</v>
+      </c>
+      <c r="E71" s="6" t="str">
+        <f aca="false">E48</f>
+        <v>production|individual heat|solar heat</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f aca="false">F48</f>
+        <v>MJ</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <f aca="false">G48</f>
+        <v>2500000000</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <f aca="false">H48</f>
+        <v>5000000000</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="str">
+        <f aca="false">A49</f>
+        <v>remind</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="6" t="str">
+        <f aca="false">C49</f>
+        <v>Wind</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f aca="false">D49</f>
+        <v>DK</v>
+      </c>
+      <c r="E72" s="6" t="str">
+        <f aca="false">E49</f>
+        <v>production|individual heat|air heat pump</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f aca="false">F49</f>
+        <v>MJ</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <f aca="false">G49</f>
+        <v>12600000000</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <f aca="false">H49</f>
+        <v>3956400000</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="str">
+        <f aca="false">A50</f>
+        <v>remind</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="6" t="str">
+        <f aca="false">C50</f>
+        <v>Wind</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f aca="false">D50</f>
+        <v>DK</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f aca="false">E50</f>
+        <v>production|individual heat|ground heat pump</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f aca="false">F50</f>
+        <v>MJ</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <f aca="false">G50</f>
+        <v>37921500000</v>
+      </c>
+      <c r="H73" s="6" t="n">
+        <f aca="false">H50</f>
+        <v>54657000000</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="str">
+        <f aca="false">A51</f>
+        <v>remind</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="6" t="str">
+        <f aca="false">C51</f>
+        <v>Wind</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f aca="false">D51</f>
+        <v>DK</v>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f aca="false">E51</f>
+        <v>production|individual heat|biomass furnace</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f aca="false">F51</f>
+        <v>MJ</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <f aca="false">G51</f>
+        <v>25170480000</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <f aca="false">H51</f>
+        <v>26170480000</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="str">
+        <f aca="false">A52</f>
+        <v>remind</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="6" t="str">
+        <f aca="false">C52</f>
+        <v>Wind</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f aca="false">D52</f>
+        <v>DK</v>
+      </c>
+      <c r="E75" s="6" t="str">
+        <f aca="false">E52</f>
+        <v>production|individual heat|biomass stove</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f aca="false">F52</f>
+        <v>MJ</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <f aca="false">G52</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H75" s="6" t="n">
+        <f aca="false">H52</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="str">
+        <f aca="false">A53</f>
+        <v>remind</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f aca="false">C53</f>
+        <v>Wind</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f aca="false">D53</f>
+        <v>DK</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f aca="false">E53</f>
+        <v>production|individual heat|biomass pellets</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f aca="false">F53</f>
+        <v>MJ</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <f aca="false">G53</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <f aca="false">H53</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="str">
+        <f aca="false">A54</f>
+        <v>remind</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f aca="false">C54</f>
+        <v>Wind</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f aca="false">D54</f>
+        <v>DK</v>
+      </c>
+      <c r="E77" s="6" t="str">
+        <f aca="false">E54</f>
+        <v>production|individual heat|sum</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f aca="false">F54</f>
+        <v>MJ</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <f aca="false">G54</f>
+        <v>78191980000</v>
+      </c>
+      <c r="H77" s="6" t="n">
+        <f aca="false">H54</f>
+        <v>63714200000</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="str">
+        <f aca="false">A55</f>
+        <v>remind</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <f aca="false">C55</f>
+        <v>Wind</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f aca="false">D55</f>
+        <v>DK</v>
+      </c>
+      <c r="E78" s="6" t="str">
+        <f aca="false">E55</f>
+        <v>production|district heat|Woodchips CHP</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f aca="false">F55</f>
+        <v>MJ</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <f aca="false">G55</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <f aca="false">H55</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="str">
+        <f aca="false">A56</f>
+        <v>remind</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="6" t="str">
+        <f aca="false">C56</f>
+        <v>Wind</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f aca="false">D56</f>
+        <v>DK</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f aca="false">E56</f>
+        <v>production|district heat|Gas CHP</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <f aca="false">F56</f>
+        <v>MJ</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <f aca="false">G56</f>
+        <v>10244880000</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <f aca="false">H56</f>
+        <v>4877280000</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="str">
+        <f aca="false">A57</f>
+        <v>remind</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="6" t="str">
+        <f aca="false">C57</f>
+        <v>Wind</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f aca="false">D57</f>
+        <v>DK</v>
+      </c>
+      <c r="E80" s="6" t="str">
+        <f aca="false">E57</f>
+        <v>production|district heat|Waste CHP</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <f aca="false">F57</f>
+        <v>MJ</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <f aca="false">G57</f>
+        <v>27379944000</v>
+      </c>
+      <c r="H80" s="6" t="n">
+        <f aca="false">H57</f>
+        <v>29480400000</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="str">
+        <f aca="false">A58</f>
+        <v>remind</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f aca="false">C58</f>
+        <v>Wind</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f aca="false">D58</f>
+        <v>DK</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f aca="false">E58</f>
+        <v>production|district heat|Biomass</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f aca="false">F58</f>
+        <v>MJ</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <f aca="false">G58</f>
+        <v>21476048400</v>
+      </c>
+      <c r="H81" s="6" t="n">
+        <f aca="false">H58</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="str">
+        <f aca="false">A59</f>
+        <v>remind</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="6" t="str">
+        <f aca="false">C59</f>
+        <v>Wind</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f aca="false">D59</f>
+        <v>DK</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f aca="false">E59</f>
+        <v>production|district heat|heat pumps</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f aca="false">F59</f>
+        <v>MJ</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <f aca="false">G59</f>
+        <v>11186640000</v>
+      </c>
+      <c r="H82" s="6" t="n">
+        <f aca="false">H59</f>
+        <v>17820540000</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="str">
+        <f aca="false">A60</f>
+        <v>remind</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="6" t="str">
+        <f aca="false">C60</f>
+        <v>Wind</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <f aca="false">D60</f>
+        <v>DK</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f aca="false">E60</f>
+        <v>production|district heat|Geothermal</v>
+      </c>
+      <c r="F83" s="6" t="str">
+        <f aca="false">F60</f>
+        <v>MJ</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <f aca="false">G60</f>
+        <v>4752360000</v>
+      </c>
+      <c r="H83" s="6" t="n">
+        <f aca="false">H60</f>
+        <v>4190040000</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="str">
+        <f aca="false">A61</f>
+        <v>remind</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="6" t="str">
+        <f aca="false">C61</f>
+        <v>Wind</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f aca="false">D61</f>
+        <v>DK</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f aca="false">E61</f>
+        <v>production|district heat|Solar heat</v>
+      </c>
+      <c r="F84" s="6" t="str">
+        <f aca="false">F61</f>
+        <v>MJ</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <f aca="false">G61</f>
+        <v>3500000000</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <f aca="false">H61</f>
+        <v>7000000000</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="str">
+        <f aca="false">A62</f>
+        <v>remind</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <f aca="false">C62</f>
+        <v>Wind</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f aca="false">D62</f>
+        <v>DK</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f aca="false">E62</f>
+        <v>production|district heat|Residual industrial heat</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f aca="false">F62</f>
+        <v>MJ</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <f aca="false">G62</f>
+        <v>4700000000</v>
+      </c>
+      <c r="H85" s="6" t="n">
+        <f aca="false">H62</f>
+        <v>4700000000</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="str">
+        <f aca="false">A63</f>
+        <v>remind</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="6" t="str">
+        <f aca="false">C63</f>
+        <v>Wind</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f aca="false">D63</f>
+        <v>DK</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f aca="false">E63</f>
+        <v>production|district heat|Wood boiler</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f aca="false">F63</f>
+        <v>MJ</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <f aca="false">G63</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <f aca="false">H63</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="str">
+        <f aca="false">A64</f>
+        <v>remind</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="6" t="str">
+        <f aca="false">C64</f>
+        <v>Wind</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f aca="false">D64</f>
+        <v>DK</v>
+      </c>
+      <c r="E87" s="6" t="str">
+        <f aca="false">E64</f>
+        <v>production|district heat|Straw boiler</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f aca="false">F64</f>
+        <v>MJ</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <f aca="false">G64</f>
+        <v>22198680000</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <f aca="false">H64</f>
+        <v>7558200000</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="str">
+        <f aca="false">A65</f>
+        <v>remind</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="6" t="str">
+        <f aca="false">C65</f>
+        <v>Wind</v>
+      </c>
+      <c r="D88" s="6" t="str">
+        <f aca="false">D65</f>
+        <v>DK</v>
+      </c>
+      <c r="E88" s="6" t="str">
+        <f aca="false">E65</f>
+        <v>production|district heat|Excess from fuels</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f aca="false">F65</f>
+        <v>MJ</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <f aca="false">G65</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="6" t="n">
+        <f aca="false">H65</f>
+        <v>3247200</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="str">
+        <f aca="false">A66</f>
+        <v>remind</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="6" t="str">
+        <f aca="false">C66</f>
+        <v>Wind</v>
+      </c>
+      <c r="D89" s="6" t="str">
+        <f aca="false">D66</f>
+        <v>DK</v>
+      </c>
+      <c r="E89" s="6" t="str">
+        <f aca="false">E66</f>
+        <v>lossess|district heat|distribution losses</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f aca="false">F66</f>
+        <v>1/%</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <f aca="false">G66</f>
+        <v>5</v>
+      </c>
+      <c r="H89" s="6" t="n">
+        <f aca="false">H66</f>
+        <v>5</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="str">
+        <f aca="false">A67</f>
+        <v>remind</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="6" t="str">
+        <f aca="false">C67</f>
+        <v>Wind</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <f aca="false">D67</f>
+        <v>DK</v>
+      </c>
+      <c r="E90" s="6" t="str">
+        <f aca="false">E67</f>
+        <v>lossess|electricity|distribution losses</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f aca="false">F67</f>
+        <v>%</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <f aca="false">G67</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="H90" s="6" t="n">
+        <f aca="false">H67</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="str">
+        <f aca="false">A68</f>
+        <v>remind</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="6" t="str">
+        <f aca="false">C68</f>
+        <v>Wind</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <f aca="false">D68</f>
+        <v>DK</v>
+      </c>
+      <c r="E91" s="6" t="str">
+        <f aca="false">E68</f>
+        <v>consumption|electricity|residential electricity use</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f aca="false">F68</f>
+        <v>kWh</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <f aca="false">G68</f>
+        <v>8394000000</v>
+      </c>
+      <c r="H91" s="6" t="n">
+        <f aca="false">H68</f>
+        <v>7724710000</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="str">
+        <f aca="false">A69</f>
+        <v>remind</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f aca="false">C69</f>
+        <v>Wind</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f aca="false">D69</f>
+        <v>DK</v>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f aca="false">E69</f>
+        <v>consumption|individual heat|individual heat use</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f aca="false">F69</f>
+        <v>MJ</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <f aca="false">G69</f>
+        <v>53700000000</v>
+      </c>
+      <c r="H92" s="6" t="n">
+        <f aca="false">H69</f>
+        <v>70100000000</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="str">
+        <f aca="false">A70</f>
+        <v>remind</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="6" t="str">
+        <f aca="false">C70</f>
+        <v>Wind</v>
+      </c>
+      <c r="D93" s="6" t="str">
+        <f aca="false">D70</f>
+        <v>DK</v>
+      </c>
+      <c r="E93" s="6" t="str">
+        <f aca="false">E70</f>
+        <v>consumption|district heat|District heat use</v>
+      </c>
+      <c r="F93" s="6" t="str">
+        <f aca="false">F70</f>
+        <v>MJ</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <f aca="false">G70</f>
+        <v>74200000000</v>
+      </c>
+      <c r="H93" s="6" t="n">
+        <f aca="false">H70</f>
+        <v>68800000000</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="str">
+        <f aca="false">A71</f>
+        <v>remind</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f aca="false">C71</f>
+        <v>Wind</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f aca="false">D71</f>
+        <v>DK</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f aca="false">E71</f>
+        <v>production|individual heat|solar heat</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f aca="false">F71</f>
+        <v>MJ</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <f aca="false">G71</f>
+        <v>2500000000</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <f aca="false">H71</f>
+        <v>5000000000</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="str">
+        <f aca="false">A72</f>
+        <v>remind</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f aca="false">C72</f>
+        <v>Wind</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f aca="false">D72</f>
+        <v>DK</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f aca="false">E72</f>
+        <v>production|individual heat|air heat pump</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f aca="false">F72</f>
+        <v>MJ</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <f aca="false">G72</f>
+        <v>12600000000</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <f aca="false">H72</f>
+        <v>3956400000</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="str">
+        <f aca="false">A73</f>
+        <v>remind</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f aca="false">C73</f>
+        <v>Wind</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f aca="false">D73</f>
+        <v>DK</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f aca="false">E73</f>
+        <v>production|individual heat|ground heat pump</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f aca="false">F73</f>
+        <v>MJ</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <f aca="false">G73</f>
+        <v>37921500000</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <f aca="false">H73</f>
+        <v>54657000000</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="str">
+        <f aca="false">A74</f>
+        <v>remind</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f aca="false">C74</f>
+        <v>Wind</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f aca="false">D74</f>
+        <v>DK</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f aca="false">E74</f>
+        <v>production|individual heat|biomass furnace</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f aca="false">F74</f>
+        <v>MJ</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <f aca="false">G74</f>
+        <v>25170480000</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <f aca="false">H74</f>
+        <v>26170480000</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="str">
+        <f aca="false">A75</f>
+        <v>remind</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f aca="false">C75</f>
+        <v>Wind</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f aca="false">D75</f>
+        <v>DK</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f aca="false">E75</f>
+        <v>production|individual heat|biomass stove</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f aca="false">F75</f>
+        <v>MJ</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <f aca="false">G75</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <f aca="false">H75</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="str">
+        <f aca="false">A76</f>
+        <v>remind</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f aca="false">C76</f>
+        <v>Wind</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f aca="false">D76</f>
+        <v>DK</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f aca="false">E76</f>
+        <v>production|individual heat|biomass pellets</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f aca="false">F76</f>
+        <v>MJ</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <f aca="false">G76</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <f aca="false">H76</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="str">
+        <f aca="false">A77</f>
+        <v>remind</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f aca="false">C77</f>
+        <v>Wind</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f aca="false">D77</f>
+        <v>DK</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f aca="false">E77</f>
+        <v>production|individual heat|sum</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f aca="false">F77</f>
+        <v>MJ</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <f aca="false">G77</f>
+        <v>78191980000</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <f aca="false">H77</f>
+        <v>63714200000</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="str">
+        <f aca="false">A78</f>
+        <v>remind</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f aca="false">C78</f>
+        <v>Wind</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f aca="false">D78</f>
+        <v>DK</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f aca="false">E78</f>
+        <v>production|district heat|Woodchips CHP</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f aca="false">F78</f>
+        <v>MJ</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <f aca="false">G78</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <f aca="false">H78</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="str">
+        <f aca="false">A79</f>
+        <v>remind</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f aca="false">C79</f>
+        <v>Wind</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f aca="false">D79</f>
+        <v>DK</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f aca="false">E79</f>
+        <v>production|district heat|Gas CHP</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f aca="false">F79</f>
+        <v>MJ</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <f aca="false">G79</f>
+        <v>10244880000</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <f aca="false">H79</f>
+        <v>4877280000</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="str">
+        <f aca="false">A80</f>
+        <v>remind</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f aca="false">C80</f>
+        <v>Wind</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f aca="false">D80</f>
+        <v>DK</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f aca="false">E80</f>
+        <v>production|district heat|Waste CHP</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f aca="false">F80</f>
+        <v>MJ</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <f aca="false">G80</f>
+        <v>27379944000</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <f aca="false">H80</f>
+        <v>29480400000</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="str">
+        <f aca="false">A81</f>
+        <v>remind</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f aca="false">C81</f>
+        <v>Wind</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f aca="false">D81</f>
+        <v>DK</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f aca="false">E81</f>
+        <v>production|district heat|Biomass</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f aca="false">F81</f>
+        <v>MJ</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <f aca="false">G81</f>
+        <v>21476048400</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <f aca="false">H81</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="str">
+        <f aca="false">A82</f>
+        <v>remind</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f aca="false">C82</f>
+        <v>Wind</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f aca="false">D82</f>
+        <v>DK</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f aca="false">E82</f>
+        <v>production|district heat|heat pumps</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f aca="false">F82</f>
+        <v>MJ</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <f aca="false">G82</f>
+        <v>11186640000</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <f aca="false">H82</f>
+        <v>17820540000</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="str">
+        <f aca="false">A83</f>
+        <v>remind</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f aca="false">C83</f>
+        <v>Wind</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f aca="false">D83</f>
+        <v>DK</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f aca="false">E83</f>
+        <v>production|district heat|Geothermal</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f aca="false">F83</f>
+        <v>MJ</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <f aca="false">G83</f>
+        <v>4752360000</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <f aca="false">H83</f>
+        <v>4190040000</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="str">
+        <f aca="false">A84</f>
+        <v>remind</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f aca="false">C84</f>
+        <v>Wind</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f aca="false">D84</f>
+        <v>DK</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f aca="false">E84</f>
+        <v>production|district heat|Solar heat</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f aca="false">F84</f>
+        <v>MJ</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <f aca="false">G84</f>
+        <v>3500000000</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <f aca="false">H84</f>
+        <v>7000000000</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="str">
+        <f aca="false">A85</f>
+        <v>remind</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f aca="false">C85</f>
+        <v>Wind</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f aca="false">D85</f>
+        <v>DK</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f aca="false">E85</f>
+        <v>production|district heat|Residual industrial heat</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f aca="false">F85</f>
+        <v>MJ</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <f aca="false">G85</f>
+        <v>4700000000</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <f aca="false">H85</f>
+        <v>4700000000</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="str">
+        <f aca="false">A86</f>
+        <v>remind</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f aca="false">C86</f>
+        <v>Wind</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f aca="false">D86</f>
+        <v>DK</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f aca="false">E86</f>
+        <v>production|district heat|Wood boiler</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f aca="false">F86</f>
+        <v>MJ</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <f aca="false">G86</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <f aca="false">H86</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="str">
+        <f aca="false">A87</f>
+        <v>remind</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f aca="false">C87</f>
+        <v>Wind</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f aca="false">D87</f>
+        <v>DK</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f aca="false">E87</f>
+        <v>production|district heat|Straw boiler</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f aca="false">F87</f>
+        <v>MJ</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <f aca="false">G87</f>
+        <v>22198680000</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <f aca="false">H87</f>
+        <v>7558200000</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="str">
+        <f aca="false">A88</f>
+        <v>remind</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f aca="false">C88</f>
+        <v>Wind</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f aca="false">D88</f>
+        <v>DK</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f aca="false">E88</f>
+        <v>production|district heat|Excess from fuels</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f aca="false">F88</f>
+        <v>MJ</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <f aca="false">G88</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <f aca="false">H88</f>
+        <v>3247200</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="str">
+        <f aca="false">A89</f>
+        <v>remind</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f aca="false">C89</f>
+        <v>Wind</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f aca="false">D89</f>
+        <v>DK</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f aca="false">E89</f>
+        <v>lossess|district heat|distribution losses</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f aca="false">F89</f>
+        <v>1/%</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <f aca="false">G89</f>
+        <v>5</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <f aca="false">H89</f>
+        <v>5</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="str">
+        <f aca="false">A90</f>
+        <v>remind</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f aca="false">C90</f>
+        <v>Wind</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f aca="false">D90</f>
+        <v>DK</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f aca="false">E90</f>
+        <v>lossess|electricity|distribution losses</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f aca="false">F90</f>
+        <v>%</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <f aca="false">G90</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <f aca="false">H90</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="str">
+        <f aca="false">A91</f>
+        <v>remind</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f aca="false">C91</f>
+        <v>Wind</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f aca="false">D91</f>
+        <v>DK</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f aca="false">E91</f>
+        <v>consumption|electricity|residential electricity use</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f aca="false">F91</f>
+        <v>kWh</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <f aca="false">G91</f>
+        <v>8394000000</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <f aca="false">H91</f>
+        <v>7724710000</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="str">
+        <f aca="false">A92</f>
+        <v>remind</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f aca="false">C92</f>
+        <v>Wind</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f aca="false">D92</f>
+        <v>DK</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f aca="false">E92</f>
+        <v>consumption|individual heat|individual heat use</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f aca="false">F92</f>
+        <v>MJ</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <f aca="false">G92</f>
+        <v>53700000000</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <f aca="false">H92</f>
+        <v>70100000000</v>
+      </c>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="str">
+        <f aca="false">A93</f>
+        <v>remind</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f aca="false">C93</f>
+        <v>Wind</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f aca="false">D93</f>
+        <v>DK</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f aca="false">E93</f>
+        <v>consumption|district heat|District heat use</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f aca="false">F93</f>
+        <v>MJ</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <f aca="false">G93</f>
+        <v>74200000000</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <f aca="false">H93</f>
+        <v>68800000000</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="str">
+        <f aca="false">A94</f>
+        <v>remind</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="6" t="str">
+        <f aca="false">C94</f>
+        <v>Wind</v>
+      </c>
+      <c r="D117" s="6" t="str">
+        <f aca="false">D94</f>
+        <v>DK</v>
+      </c>
+      <c r="E117" s="6" t="str">
+        <f aca="false">E94</f>
+        <v>production|individual heat|solar heat</v>
+      </c>
+      <c r="F117" s="6" t="str">
+        <f aca="false">F94</f>
+        <v>MJ</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <f aca="false">G94</f>
+        <v>2500000000</v>
+      </c>
+      <c r="H117" s="6" t="n">
+        <f aca="false">H94</f>
+        <v>5000000000</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="str">
+        <f aca="false">A95</f>
+        <v>remind</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="6" t="str">
+        <f aca="false">C95</f>
+        <v>Wind</v>
+      </c>
+      <c r="D118" s="6" t="str">
+        <f aca="false">D95</f>
+        <v>DK</v>
+      </c>
+      <c r="E118" s="6" t="str">
+        <f aca="false">E95</f>
+        <v>production|individual heat|air heat pump</v>
+      </c>
+      <c r="F118" s="6" t="str">
+        <f aca="false">F95</f>
+        <v>MJ</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <f aca="false">G95</f>
+        <v>12600000000</v>
+      </c>
+      <c r="H118" s="6" t="n">
+        <f aca="false">H95</f>
+        <v>3956400000</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="str">
+        <f aca="false">A96</f>
+        <v>remind</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="6" t="str">
+        <f aca="false">C96</f>
+        <v>Wind</v>
+      </c>
+      <c r="D119" s="6" t="str">
+        <f aca="false">D96</f>
+        <v>DK</v>
+      </c>
+      <c r="E119" s="6" t="str">
+        <f aca="false">E96</f>
+        <v>production|individual heat|ground heat pump</v>
+      </c>
+      <c r="F119" s="6" t="str">
+        <f aca="false">F96</f>
+        <v>MJ</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <f aca="false">G96</f>
+        <v>37921500000</v>
+      </c>
+      <c r="H119" s="6" t="n">
+        <f aca="false">H96</f>
+        <v>54657000000</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="str">
+        <f aca="false">A97</f>
+        <v>remind</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="6" t="str">
+        <f aca="false">C97</f>
+        <v>Wind</v>
+      </c>
+      <c r="D120" s="6" t="str">
+        <f aca="false">D97</f>
+        <v>DK</v>
+      </c>
+      <c r="E120" s="6" t="str">
+        <f aca="false">E97</f>
+        <v>production|individual heat|biomass furnace</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f aca="false">F97</f>
+        <v>MJ</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <f aca="false">G97</f>
+        <v>25170480000</v>
+      </c>
+      <c r="H120" s="6" t="n">
+        <f aca="false">H97</f>
+        <v>26170480000</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="str">
+        <f aca="false">A98</f>
+        <v>remind</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="6" t="str">
+        <f aca="false">C98</f>
+        <v>Wind</v>
+      </c>
+      <c r="D121" s="6" t="str">
+        <f aca="false">D98</f>
+        <v>DK</v>
+      </c>
+      <c r="E121" s="6" t="str">
+        <f aca="false">E98</f>
+        <v>production|individual heat|biomass stove</v>
+      </c>
+      <c r="F121" s="6" t="str">
+        <f aca="false">F98</f>
+        <v>MJ</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <f aca="false">G98</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H121" s="6" t="n">
+        <f aca="false">H98</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="str">
+        <f aca="false">A99</f>
+        <v>remind</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="6" t="str">
+        <f aca="false">C99</f>
+        <v>Wind</v>
+      </c>
+      <c r="D122" s="6" t="str">
+        <f aca="false">D99</f>
+        <v>DK</v>
+      </c>
+      <c r="E122" s="6" t="str">
+        <f aca="false">E99</f>
+        <v>production|individual heat|biomass pellets</v>
+      </c>
+      <c r="F122" s="6" t="str">
+        <f aca="false">F99</f>
+        <v>MJ</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <f aca="false">G99</f>
+        <v>12585240000</v>
+      </c>
+      <c r="H122" s="6" t="n">
+        <f aca="false">H99</f>
+        <v>13085240000</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="str">
+        <f aca="false">A100</f>
+        <v>remind</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="6" t="str">
+        <f aca="false">C100</f>
+        <v>Wind</v>
+      </c>
+      <c r="D123" s="6" t="str">
+        <f aca="false">D100</f>
+        <v>DK</v>
+      </c>
+      <c r="E123" s="6" t="str">
+        <f aca="false">E100</f>
+        <v>production|individual heat|sum</v>
+      </c>
+      <c r="F123" s="6" t="str">
+        <f aca="false">F100</f>
+        <v>MJ</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <f aca="false">G100</f>
+        <v>78191980000</v>
+      </c>
+      <c r="H123" s="6" t="n">
+        <f aca="false">H100</f>
+        <v>63714200000</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="str">
+        <f aca="false">A101</f>
+        <v>remind</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="6" t="str">
+        <f aca="false">C101</f>
+        <v>Wind</v>
+      </c>
+      <c r="D124" s="6" t="str">
+        <f aca="false">D101</f>
+        <v>DK</v>
+      </c>
+      <c r="E124" s="6" t="str">
+        <f aca="false">E101</f>
+        <v>production|district heat|Woodchips CHP</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f aca="false">F101</f>
+        <v>MJ</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <f aca="false">G101</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="6" t="n">
+        <f aca="false">H101</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="str">
+        <f aca="false">A102</f>
+        <v>remind</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="6" t="str">
+        <f aca="false">C102</f>
+        <v>Wind</v>
+      </c>
+      <c r="D125" s="6" t="str">
+        <f aca="false">D102</f>
+        <v>DK</v>
+      </c>
+      <c r="E125" s="6" t="str">
+        <f aca="false">E102</f>
+        <v>production|district heat|Gas CHP</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f aca="false">F102</f>
+        <v>MJ</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <f aca="false">G102</f>
+        <v>10244880000</v>
+      </c>
+      <c r="H125" s="6" t="n">
+        <f aca="false">H102</f>
+        <v>4877280000</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="str">
+        <f aca="false">A103</f>
+        <v>remind</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="6" t="str">
+        <f aca="false">C103</f>
+        <v>Wind</v>
+      </c>
+      <c r="D126" s="6" t="str">
+        <f aca="false">D103</f>
+        <v>DK</v>
+      </c>
+      <c r="E126" s="6" t="str">
+        <f aca="false">E103</f>
+        <v>production|district heat|Waste CHP</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f aca="false">F103</f>
+        <v>MJ</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <f aca="false">G103</f>
+        <v>27379944000</v>
+      </c>
+      <c r="H126" s="6" t="n">
+        <f aca="false">H103</f>
+        <v>29480400000</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="str">
+        <f aca="false">A104</f>
+        <v>remind</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="6" t="str">
+        <f aca="false">C104</f>
+        <v>Wind</v>
+      </c>
+      <c r="D127" s="6" t="str">
+        <f aca="false">D104</f>
+        <v>DK</v>
+      </c>
+      <c r="E127" s="6" t="str">
+        <f aca="false">E104</f>
+        <v>production|district heat|Biomass</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f aca="false">F104</f>
+        <v>MJ</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <f aca="false">G104</f>
+        <v>21476048400</v>
+      </c>
+      <c r="H127" s="6" t="n">
+        <f aca="false">H104</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="str">
+        <f aca="false">A105</f>
+        <v>remind</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="6" t="str">
+        <f aca="false">C105</f>
+        <v>Wind</v>
+      </c>
+      <c r="D128" s="6" t="str">
+        <f aca="false">D105</f>
+        <v>DK</v>
+      </c>
+      <c r="E128" s="6" t="str">
+        <f aca="false">E105</f>
+        <v>production|district heat|heat pumps</v>
+      </c>
+      <c r="F128" s="6" t="str">
+        <f aca="false">F105</f>
+        <v>MJ</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <f aca="false">G105</f>
+        <v>11186640000</v>
+      </c>
+      <c r="H128" s="6" t="n">
+        <f aca="false">H105</f>
+        <v>17820540000</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="str">
+        <f aca="false">A106</f>
+        <v>remind</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="6" t="str">
+        <f aca="false">C106</f>
+        <v>Wind</v>
+      </c>
+      <c r="D129" s="6" t="str">
+        <f aca="false">D106</f>
+        <v>DK</v>
+      </c>
+      <c r="E129" s="6" t="str">
+        <f aca="false">E106</f>
+        <v>production|district heat|Geothermal</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f aca="false">F106</f>
+        <v>MJ</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <f aca="false">G106</f>
+        <v>4752360000</v>
+      </c>
+      <c r="H129" s="6" t="n">
+        <f aca="false">H106</f>
+        <v>4190040000</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="str">
+        <f aca="false">A107</f>
+        <v>remind</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="6" t="str">
+        <f aca="false">C107</f>
+        <v>Wind</v>
+      </c>
+      <c r="D130" s="6" t="str">
+        <f aca="false">D107</f>
+        <v>DK</v>
+      </c>
+      <c r="E130" s="6" t="str">
+        <f aca="false">E107</f>
+        <v>production|district heat|Solar heat</v>
+      </c>
+      <c r="F130" s="6" t="str">
+        <f aca="false">F107</f>
+        <v>MJ</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <f aca="false">G107</f>
+        <v>3500000000</v>
+      </c>
+      <c r="H130" s="6" t="n">
+        <f aca="false">H107</f>
+        <v>7000000000</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="str">
+        <f aca="false">A108</f>
+        <v>remind</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="6" t="str">
+        <f aca="false">C108</f>
+        <v>Wind</v>
+      </c>
+      <c r="D131" s="6" t="str">
+        <f aca="false">D108</f>
+        <v>DK</v>
+      </c>
+      <c r="E131" s="6" t="str">
+        <f aca="false">E108</f>
+        <v>production|district heat|Residual industrial heat</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f aca="false">F108</f>
+        <v>MJ</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <f aca="false">G108</f>
+        <v>4700000000</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <f aca="false">H108</f>
+        <v>4700000000</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="str">
+        <f aca="false">A109</f>
+        <v>remind</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="6" t="str">
+        <f aca="false">C109</f>
+        <v>Wind</v>
+      </c>
+      <c r="D132" s="6" t="str">
+        <f aca="false">D109</f>
+        <v>DK</v>
+      </c>
+      <c r="E132" s="6" t="str">
+        <f aca="false">E109</f>
+        <v>production|district heat|Wood boiler</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f aca="false">F109</f>
+        <v>MJ</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <f aca="false">G109</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <f aca="false">H109</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="str">
+        <f aca="false">A110</f>
+        <v>remind</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="6" t="str">
+        <f aca="false">C110</f>
+        <v>Wind</v>
+      </c>
+      <c r="D133" s="6" t="str">
+        <f aca="false">D110</f>
+        <v>DK</v>
+      </c>
+      <c r="E133" s="6" t="str">
+        <f aca="false">E110</f>
+        <v>production|district heat|Straw boiler</v>
+      </c>
+      <c r="F133" s="6" t="str">
+        <f aca="false">F110</f>
+        <v>MJ</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <f aca="false">G110</f>
+        <v>22198680000</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <f aca="false">H110</f>
+        <v>7558200000</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="str">
+        <f aca="false">A111</f>
+        <v>remind</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="6" t="str">
+        <f aca="false">C111</f>
+        <v>Wind</v>
+      </c>
+      <c r="D134" s="6" t="str">
+        <f aca="false">D111</f>
+        <v>DK</v>
+      </c>
+      <c r="E134" s="6" t="str">
+        <f aca="false">E111</f>
+        <v>production|district heat|Excess from fuels</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f aca="false">F111</f>
+        <v>MJ</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <f aca="false">G111</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <f aca="false">H111</f>
+        <v>3247200</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="str">
+        <f aca="false">A112</f>
+        <v>remind</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="6" t="str">
+        <f aca="false">C112</f>
+        <v>Wind</v>
+      </c>
+      <c r="D135" s="6" t="str">
+        <f aca="false">D112</f>
+        <v>DK</v>
+      </c>
+      <c r="E135" s="6" t="str">
+        <f aca="false">E112</f>
+        <v>lossess|district heat|distribution losses</v>
+      </c>
+      <c r="F135" s="6" t="str">
+        <f aca="false">F112</f>
+        <v>1/%</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <f aca="false">G112</f>
+        <v>5</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <f aca="false">H112</f>
+        <v>5</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="str">
+        <f aca="false">A113</f>
+        <v>remind</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="6" t="str">
+        <f aca="false">C113</f>
+        <v>Wind</v>
+      </c>
+      <c r="D136" s="6" t="str">
+        <f aca="false">D113</f>
+        <v>DK</v>
+      </c>
+      <c r="E136" s="6" t="str">
+        <f aca="false">E113</f>
+        <v>lossess|electricity|distribution losses</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f aca="false">F113</f>
+        <v>%</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <f aca="false">G113</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <f aca="false">H113</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="str">
+        <f aca="false">A114</f>
+        <v>remind</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="6" t="str">
+        <f aca="false">C114</f>
+        <v>Wind</v>
+      </c>
+      <c r="D137" s="6" t="str">
+        <f aca="false">D114</f>
+        <v>DK</v>
+      </c>
+      <c r="E137" s="6" t="str">
+        <f aca="false">E114</f>
+        <v>consumption|electricity|residential electricity use</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f aca="false">F114</f>
+        <v>kWh</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <f aca="false">G114</f>
+        <v>8394000000</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <f aca="false">H114</f>
+        <v>7724710000</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="str">
+        <f aca="false">A115</f>
+        <v>remind</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="6" t="str">
+        <f aca="false">C115</f>
+        <v>Wind</v>
+      </c>
+      <c r="D138" s="6" t="str">
+        <f aca="false">D115</f>
+        <v>DK</v>
+      </c>
+      <c r="E138" s="6" t="str">
+        <f aca="false">E115</f>
+        <v>consumption|individual heat|individual heat use</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f aca="false">F115</f>
+        <v>MJ</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <f aca="false">G115</f>
+        <v>53700000000</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <f aca="false">H115</f>
+        <v>70100000000</v>
+      </c>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="str">
+        <f aca="false">A116</f>
+        <v>remind</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" s="6" t="str">
+        <f aca="false">C116</f>
+        <v>Wind</v>
+      </c>
+      <c r="D139" s="6" t="str">
+        <f aca="false">D116</f>
+        <v>DK</v>
+      </c>
+      <c r="E139" s="6" t="str">
+        <f aca="false">E116</f>
+        <v>consumption|district heat|District heat use</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f aca="false">F116</f>
+        <v>MJ</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <f aca="false">G116</f>
+        <v>74200000000</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <f aca="false">H116</f>
+        <v>68800000000</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
